--- a/Code/Results/Cases/Case_1_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9580853920315658</v>
+        <v>1.016059960140154</v>
       </c>
       <c r="D2">
-        <v>1.033481361666388</v>
+        <v>1.043808470565055</v>
       </c>
       <c r="E2">
-        <v>0.9698590071387776</v>
+        <v>1.017584678223098</v>
       </c>
       <c r="F2">
-        <v>1.025013456111866</v>
+        <v>1.048010076926771</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049311695968641</v>
+        <v>1.036556810286518</v>
       </c>
       <c r="J2">
-        <v>0.981596355773673</v>
+        <v>1.021281926496816</v>
       </c>
       <c r="K2">
-        <v>1.044493151524901</v>
+        <v>1.046581292889503</v>
       </c>
       <c r="L2">
-        <v>0.9817548617170677</v>
+        <v>1.020433432074942</v>
       </c>
       <c r="M2">
-        <v>1.036134974677049</v>
+        <v>1.050771116642107</v>
       </c>
       <c r="N2">
-        <v>0.9969522556285746</v>
+        <v>1.011035789920766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9654299119177365</v>
+        <v>1.017534719921296</v>
       </c>
       <c r="D3">
-        <v>1.036548866066741</v>
+        <v>1.044433685686065</v>
       </c>
       <c r="E3">
-        <v>0.9759160802781026</v>
+        <v>1.018853068058077</v>
       </c>
       <c r="F3">
-        <v>1.029358313018099</v>
+        <v>1.048918078645702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050255920079195</v>
+        <v>1.036678097909484</v>
       </c>
       <c r="J3">
-        <v>0.9869095087186082</v>
+        <v>1.022389206574995</v>
       </c>
       <c r="K3">
-        <v>1.046734516646566</v>
+        <v>1.047018104045995</v>
       </c>
       <c r="L3">
-        <v>0.9868666850997194</v>
+        <v>1.021506171554783</v>
       </c>
       <c r="M3">
-        <v>1.039628839178574</v>
+        <v>1.051490828883245</v>
       </c>
       <c r="N3">
-        <v>0.9988441652022877</v>
+        <v>1.011417396914446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9700417396743424</v>
+        <v>1.018488054533345</v>
       </c>
       <c r="D4">
-        <v>1.0384862112555</v>
+        <v>1.044837602597406</v>
       </c>
       <c r="E4">
-        <v>0.9797271030836892</v>
+        <v>1.019673230345743</v>
       </c>
       <c r="F4">
-        <v>1.032099680685287</v>
+        <v>1.049504927832158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050839695392049</v>
+        <v>1.036754991276179</v>
       </c>
       <c r="J4">
-        <v>0.9902441171590046</v>
+        <v>1.023104433441564</v>
       </c>
       <c r="K4">
-        <v>1.048141313026186</v>
+        <v>1.04729942144768</v>
       </c>
       <c r="L4">
-        <v>0.990076523006537</v>
+        <v>1.022199197271131</v>
       </c>
       <c r="M4">
-        <v>1.041825532229431</v>
+        <v>1.051955212944893</v>
       </c>
       <c r="N4">
-        <v>1.000029681074071</v>
+        <v>1.011663483320982</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9719488223403548</v>
+        <v>1.018888619627443</v>
       </c>
       <c r="D5">
-        <v>1.039289703944536</v>
+        <v>1.045007255666492</v>
       </c>
       <c r="E5">
-        <v>0.9813047468847116</v>
+        <v>1.020017894655405</v>
       </c>
       <c r="F5">
-        <v>1.033236096934623</v>
+        <v>1.049751474904736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051078776832134</v>
+        <v>1.036786936937752</v>
       </c>
       <c r="J5">
-        <v>0.9916225585272591</v>
+        <v>1.02340481837574</v>
       </c>
       <c r="K5">
-        <v>1.048722672037871</v>
+        <v>1.047417368993308</v>
       </c>
       <c r="L5">
-        <v>0.9914037552733078</v>
+        <v>1.022490284196846</v>
       </c>
       <c r="M5">
-        <v>1.042734308919831</v>
+        <v>1.05215012510729</v>
       </c>
       <c r="N5">
-        <v>1.000519264866912</v>
+        <v>1.01176673862688</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9722672221429552</v>
+        <v>1.018955863752314</v>
       </c>
       <c r="D6">
-        <v>1.039423982222198</v>
+        <v>1.045035732138254</v>
       </c>
       <c r="E6">
-        <v>0.9815682420296147</v>
+        <v>1.020075757710805</v>
       </c>
       <c r="F6">
-        <v>1.03342598453381</v>
+        <v>1.049792861622224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051118552826357</v>
+        <v>1.036792278448053</v>
       </c>
       <c r="J6">
-        <v>0.991852667296242</v>
+        <v>1.023455237077219</v>
       </c>
       <c r="K6">
-        <v>1.04881970490944</v>
+        <v>1.047437154234057</v>
       </c>
       <c r="L6">
-        <v>0.9916253367819665</v>
+        <v>1.022539143786387</v>
       </c>
       <c r="M6">
-        <v>1.042886051032348</v>
+        <v>1.052182833268611</v>
       </c>
       <c r="N6">
-        <v>1.000600964139776</v>
+        <v>1.01178406399354</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9700673444613147</v>
+        <v>1.018493407747197</v>
       </c>
       <c r="D7">
-        <v>1.0384969901331</v>
+        <v>1.044839870114369</v>
       </c>
       <c r="E7">
-        <v>0.9797482781554943</v>
+        <v>1.019677836279616</v>
       </c>
       <c r="F7">
-        <v>1.032114927713198</v>
+        <v>1.049508222851284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050842914691709</v>
+        <v>1.03675541963027</v>
       </c>
       <c r="J7">
-        <v>0.9902626263571844</v>
+        <v>1.023108448358911</v>
       </c>
       <c r="K7">
-        <v>1.048149120239091</v>
+        <v>1.047300998719531</v>
       </c>
       <c r="L7">
-        <v>0.9900943431480796</v>
+        <v>1.02220308780948</v>
       </c>
       <c r="M7">
-        <v>1.041837732368004</v>
+        <v>1.051957818607378</v>
       </c>
       <c r="N7">
-        <v>1.000036256952167</v>
+        <v>1.01166486380529</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9605978233128509</v>
+        <v>1.016558559472245</v>
       </c>
       <c r="D8">
-        <v>1.034528140056173</v>
+        <v>1.044019896909769</v>
       </c>
       <c r="E8">
-        <v>0.971929342031698</v>
+        <v>1.018013457533117</v>
       </c>
       <c r="F8">
-        <v>1.026496771901205</v>
+        <v>1.048317083275701</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049636542376513</v>
+        <v>1.036598128672683</v>
       </c>
       <c r="J8">
-        <v>0.9834141895140842</v>
+        <v>1.021656400096667</v>
       </c>
       <c r="K8">
-        <v>1.045259867410013</v>
+        <v>1.046729190240671</v>
       </c>
       <c r="L8">
-        <v>0.9835034695771362</v>
+        <v>1.020796201501807</v>
       </c>
       <c r="M8">
-        <v>1.037329401462823</v>
+        <v>1.051014620010993</v>
       </c>
       <c r="N8">
-        <v>0.9975999279043012</v>
+        <v>1.011164930322507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9427386842437668</v>
+        <v>1.013141657744842</v>
       </c>
       <c r="D9">
-        <v>1.027150156820014</v>
+        <v>1.042570130368226</v>
       </c>
       <c r="E9">
-        <v>0.9572512053490819</v>
+        <v>1.015076026051515</v>
       </c>
       <c r="F9">
-        <v>1.016025159023227</v>
+        <v>1.046212843516564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047293815616696</v>
+        <v>1.036308808434518</v>
       </c>
       <c r="J9">
-        <v>0.9704891788887734</v>
+        <v>1.019087869655539</v>
       </c>
       <c r="K9">
-        <v>1.039817580963454</v>
+        <v>1.045711423447517</v>
       </c>
       <c r="L9">
-        <v>0.9710781442256415</v>
+        <v>1.018308406165053</v>
       </c>
       <c r="M9">
-        <v>1.028863481619166</v>
+        <v>1.049342461692808</v>
       </c>
       <c r="N9">
-        <v>0.9929880721831564</v>
+        <v>1.010277496095139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9298921400356945</v>
+        <v>1.010858289757794</v>
       </c>
       <c r="D10">
-        <v>1.021941560146602</v>
+        <v>1.041600377400074</v>
       </c>
       <c r="E10">
-        <v>0.9467491760955196</v>
+        <v>1.013114358091413</v>
       </c>
       <c r="F10">
-        <v>1.008604755687581</v>
+        <v>1.044806414051939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04557266898705</v>
+        <v>1.036107765727129</v>
       </c>
       <c r="J10">
-        <v>0.9611926175957077</v>
+        <v>1.017368613403267</v>
       </c>
       <c r="K10">
-        <v>1.035925640318168</v>
+        <v>1.045026085099039</v>
       </c>
       <c r="L10">
-        <v>0.9621513941465781</v>
+        <v>1.016643767878419</v>
       </c>
       <c r="M10">
-        <v>1.022820367394482</v>
+        <v>1.048220840625339</v>
       </c>
       <c r="N10">
-        <v>0.9896636915832201</v>
+        <v>1.009681422165564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9240661718552945</v>
+        <v>1.009868182853495</v>
       </c>
       <c r="D11">
-        <v>1.019609290834472</v>
+        <v>1.041179700505726</v>
       </c>
       <c r="E11">
-        <v>0.9420024211013289</v>
+        <v>1.01226406541504</v>
       </c>
       <c r="F11">
-        <v>1.005273199630893</v>
+        <v>1.044196549853722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044786106800446</v>
+        <v>1.036018777389464</v>
       </c>
       <c r="J11">
-        <v>0.956978555351064</v>
+        <v>1.016622454288477</v>
       </c>
       <c r="K11">
-        <v>1.034170643018688</v>
+        <v>1.044727707666416</v>
       </c>
       <c r="L11">
-        <v>0.9581077396082398</v>
+        <v>1.015921451567432</v>
       </c>
       <c r="M11">
-        <v>1.020096351609251</v>
+        <v>1.047733531050937</v>
       </c>
       <c r="N11">
-        <v>0.9881556041483953</v>
+        <v>1.00942223964568</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9218585839588431</v>
+        <v>1.009500195492618</v>
       </c>
       <c r="D12">
-        <v>1.018730636293663</v>
+        <v>1.041023327443729</v>
       </c>
       <c r="E12">
-        <v>0.9402064200733268</v>
+        <v>1.01194809117168</v>
       </c>
       <c r="F12">
-        <v>1.004016519283893</v>
+        <v>1.043969887273559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044487396118345</v>
+        <v>1.035985432421321</v>
       </c>
       <c r="J12">
-        <v>0.9553822243102702</v>
+        <v>1.016345035016807</v>
       </c>
       <c r="K12">
-        <v>1.033507574725822</v>
+        <v>1.044616633375144</v>
       </c>
       <c r="L12">
-        <v>0.9565764077633557</v>
+        <v>1.015652917911042</v>
       </c>
       <c r="M12">
-        <v>1.019067171568166</v>
+        <v>1.047552275088091</v>
       </c>
       <c r="N12">
-        <v>0.9875842001214181</v>
+        <v>1.009325803891148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9223341608238661</v>
+        <v>1.009579140008738</v>
       </c>
       <c r="D13">
-        <v>1.018919683096337</v>
+        <v>1.041056875191562</v>
       </c>
       <c r="E13">
-        <v>0.9405932056065236</v>
+        <v>1.012015875044314</v>
       </c>
       <c r="F13">
-        <v>1.004286974247975</v>
+        <v>1.044018513149981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044551772784102</v>
+        <v>1.035992598185881</v>
       </c>
       <c r="J13">
-        <v>0.9557260949448703</v>
+        <v>1.01640455436492</v>
       </c>
       <c r="K13">
-        <v>1.033650323490311</v>
+        <v>1.044640470212969</v>
       </c>
       <c r="L13">
-        <v>0.9569062560240866</v>
+        <v>1.015710529931169</v>
       </c>
       <c r="M13">
-        <v>1.019288741338105</v>
+        <v>1.047591166324089</v>
       </c>
       <c r="N13">
-        <v>0.9877072927939612</v>
+        <v>1.00934649713013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9238846057839821</v>
+        <v>1.009837769389561</v>
       </c>
       <c r="D14">
-        <v>1.01953691774041</v>
+        <v>1.041166777002168</v>
       </c>
       <c r="E14">
-        <v>0.9418546513068773</v>
+        <v>1.012237949728206</v>
       </c>
       <c r="F14">
-        <v>1.005169722230847</v>
+        <v>1.044177816550036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044761550961144</v>
+        <v>1.036016027014669</v>
       </c>
       <c r="J14">
-        <v>0.9568472523321376</v>
+        <v>1.016599528113915</v>
       </c>
       <c r="K14">
-        <v>1.034116066120471</v>
+        <v>1.044718531201007</v>
       </c>
       <c r="L14">
-        <v>0.9579817737202444</v>
+        <v>1.015899259280054</v>
       </c>
       <c r="M14">
-        <v>1.020011641112351</v>
+        <v>1.047718553431432</v>
       </c>
       <c r="N14">
-        <v>0.9881086066685602</v>
+        <v>1.009414271588503</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9248339842374913</v>
+        <v>1.009997090409875</v>
       </c>
       <c r="D15">
-        <v>1.019915555158516</v>
+        <v>1.041234475915913</v>
       </c>
       <c r="E15">
-        <v>0.9426274238912838</v>
+        <v>1.012374758850204</v>
       </c>
       <c r="F15">
-        <v>1.005711024635074</v>
+        <v>1.044275951128727</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044889923779366</v>
+        <v>1.036030423765277</v>
       </c>
       <c r="J15">
-        <v>0.9575338339185027</v>
+        <v>1.016719622914304</v>
       </c>
       <c r="K15">
-        <v>1.034401520988751</v>
+        <v>1.044766594867905</v>
       </c>
       <c r="L15">
-        <v>0.9586404658739767</v>
+        <v>1.016015510597623</v>
       </c>
       <c r="M15">
-        <v>1.020454703538094</v>
+        <v>1.047797008005704</v>
       </c>
       <c r="N15">
-        <v>0.9883543510618696</v>
+        <v>1.009456007906957</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9302729131774176</v>
+        <v>1.010923969832807</v>
       </c>
       <c r="D16">
-        <v>1.022094659357597</v>
+        <v>1.041628280202543</v>
       </c>
       <c r="E16">
-        <v>0.9470597645374051</v>
+        <v>1.013170770229639</v>
       </c>
       <c r="F16">
-        <v>1.008823248989567</v>
+        <v>1.044846870294389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04562397222556</v>
+        <v>1.036113630815494</v>
       </c>
       <c r="J16">
-        <v>0.9614680948299983</v>
+        <v>1.017418097019123</v>
       </c>
       <c r="K16">
-        <v>1.036040585839642</v>
+        <v>1.045045853263228</v>
       </c>
       <c r="L16">
-        <v>0.9624157914878045</v>
+        <v>1.016691673220074</v>
       </c>
       <c r="M16">
-        <v>1.022998788395024</v>
+        <v>1.04825314710869</v>
       </c>
       <c r="N16">
-        <v>0.9897622566670251</v>
+        <v>1.009698600379632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9336114521008626</v>
+        <v>1.01150499794447</v>
       </c>
       <c r="D17">
-        <v>1.023440432788601</v>
+        <v>1.04187509802277</v>
       </c>
       <c r="E17">
-        <v>0.9497847649424529</v>
+        <v>1.013669848087676</v>
       </c>
       <c r="F17">
-        <v>1.010742815788665</v>
+        <v>1.045204758916409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04607313689406</v>
+        <v>1.036165306245355</v>
       </c>
       <c r="J17">
-        <v>0.963883662395822</v>
+        <v>1.017855769612606</v>
       </c>
       <c r="K17">
-        <v>1.037049580790685</v>
+        <v>1.045220590563983</v>
       </c>
       <c r="L17">
-        <v>0.9647345192066998</v>
+        <v>1.017115402299305</v>
       </c>
       <c r="M17">
-        <v>1.024565070409891</v>
+        <v>1.048538831233365</v>
       </c>
       <c r="N17">
-        <v>0.9906264145931682</v>
+        <v>1.009850482209124</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9355336555905226</v>
+        <v>1.011843767917538</v>
       </c>
       <c r="D18">
-        <v>1.024218036822489</v>
+        <v>1.042018988610014</v>
       </c>
       <c r="E18">
-        <v>0.9513551966412421</v>
+        <v>1.01396086748992</v>
       </c>
       <c r="F18">
-        <v>1.011851138417616</v>
+        <v>1.045413425330618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04633116798503</v>
+        <v>1.036195260897102</v>
       </c>
       <c r="J18">
-        <v>0.9652746269756519</v>
+        <v>1.018110892045328</v>
       </c>
       <c r="K18">
-        <v>1.037631431352714</v>
+        <v>1.045322355436866</v>
       </c>
       <c r="L18">
-        <v>0.9660699784927611</v>
+        <v>1.017362410300202</v>
       </c>
       <c r="M18">
-        <v>1.025468393985441</v>
+        <v>1.048705307763442</v>
       </c>
       <c r="N18">
-        <v>0.9911239122327314</v>
+        <v>1.009938968365296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9361849309708344</v>
+        <v>1.011959257260429</v>
       </c>
       <c r="D19">
-        <v>1.024481953341284</v>
+        <v>1.042068039006083</v>
       </c>
       <c r="E19">
-        <v>0.9518875299104944</v>
+        <v>1.014060083468078</v>
       </c>
       <c r="F19">
-        <v>1.012227165886437</v>
+        <v>1.045484560973397</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04641848811797</v>
+        <v>1.036205442980971</v>
       </c>
       <c r="J19">
-        <v>0.9657459340405501</v>
+        <v>1.018197854456034</v>
       </c>
       <c r="K19">
-        <v>1.037828714435924</v>
+        <v>1.045357028094341</v>
       </c>
       <c r="L19">
-        <v>0.9665225214345713</v>
+        <v>1.017446609040667</v>
       </c>
       <c r="M19">
-        <v>1.0257746984151</v>
+        <v>1.048762045158194</v>
       </c>
       <c r="N19">
-        <v>0.9912924610267313</v>
+        <v>1.009969122280514</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9332558828571519</v>
+        <v>1.011442673035782</v>
       </c>
       <c r="D20">
-        <v>1.023296811023813</v>
+        <v>1.041848624465531</v>
       </c>
       <c r="E20">
-        <v>0.9494943847241443</v>
+        <v>1.013616310515503</v>
       </c>
       <c r="F20">
-        <v>1.0105380456884</v>
+        <v>1.045166369546563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04602535762125</v>
+        <v>1.036159781277112</v>
       </c>
       <c r="J20">
-        <v>0.9636263745768532</v>
+        <v>1.017808828550527</v>
       </c>
       <c r="K20">
-        <v>1.03694202084218</v>
+        <v>1.045201859086772</v>
       </c>
       <c r="L20">
-        <v>0.9644875189770172</v>
+        <v>1.017069955319491</v>
       </c>
       <c r="M20">
-        <v>1.024398093090311</v>
+        <v>1.048508196400251</v>
       </c>
       <c r="N20">
-        <v>0.9905343825275138</v>
+        <v>1.009834197490723</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9234292759205996</v>
+        <v>1.009761615555364</v>
       </c>
       <c r="D21">
-        <v>1.0193555051583</v>
+        <v>1.041134416828006</v>
       </c>
       <c r="E21">
-        <v>0.9414841189518958</v>
+        <v>1.012172558116792</v>
       </c>
       <c r="F21">
-        <v>1.004910316810981</v>
+        <v>1.044130909317547</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044699960196682</v>
+        <v>1.036009135833922</v>
       </c>
       <c r="J21">
-        <v>0.9565179799117665</v>
+        <v>1.016542120497954</v>
       </c>
       <c r="K21">
-        <v>1.033979231351897</v>
+        <v>1.044695550911275</v>
       </c>
       <c r="L21">
-        <v>0.957665892674019</v>
+        <v>1.015843689671553</v>
       </c>
       <c r="M21">
-        <v>1.019799255084432</v>
+        <v>1.047681047943906</v>
       </c>
       <c r="N21">
-        <v>0.9879907478922342</v>
+        <v>1.009394318236551</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9169964361487811</v>
+        <v>1.008703405084414</v>
       </c>
       <c r="D22">
-        <v>1.016805555437963</v>
+        <v>1.040684701342808</v>
       </c>
       <c r="E22">
-        <v>0.936255975631713</v>
+        <v>1.011264014157371</v>
       </c>
       <c r="F22">
-        <v>1.001260076920365</v>
+        <v>1.043479110938348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04382855191631</v>
+        <v>1.035912736969382</v>
       </c>
       <c r="J22">
-        <v>0.951867430711574</v>
+        <v>1.015744168976448</v>
       </c>
       <c r="K22">
-        <v>1.032051284087626</v>
+        <v>1.04437580528603</v>
       </c>
       <c r="L22">
-        <v>0.9532055909952768</v>
+        <v>1.015071335806316</v>
       </c>
       <c r="M22">
-        <v>1.016806612702418</v>
+        <v>1.047159554440358</v>
       </c>
       <c r="N22">
-        <v>0.9863259165855963</v>
+        <v>1.009116799947183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9204322155897213</v>
+        <v>1.009264504941952</v>
       </c>
       <c r="D23">
-        <v>1.018164436757336</v>
+        <v>1.040923166926532</v>
       </c>
       <c r="E23">
-        <v>0.9390467674360332</v>
+        <v>1.01174572824862</v>
       </c>
       <c r="F23">
-        <v>1.003206254097038</v>
+        <v>1.043824714299738</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044294237320287</v>
+        <v>1.035963999258554</v>
       </c>
       <c r="J23">
-        <v>0.9543509577696886</v>
+        <v>1.016167324337358</v>
       </c>
       <c r="K23">
-        <v>1.033079757172015</v>
+        <v>1.044545442117217</v>
       </c>
       <c r="L23">
-        <v>0.9555872623284505</v>
+        <v>1.015480905138712</v>
       </c>
       <c r="M23">
-        <v>1.018403115274618</v>
+        <v>1.047436144151666</v>
       </c>
       <c r="N23">
-        <v>0.9872150316664184</v>
+        <v>1.00926400817186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9334166265937558</v>
+        <v>1.011470835393261</v>
       </c>
       <c r="D24">
-        <v>1.02336173021273</v>
+        <v>1.041860586955798</v>
       </c>
       <c r="E24">
-        <v>0.949625653592881</v>
+        <v>1.013640502100563</v>
       </c>
       <c r="F24">
-        <v>1.010630607387618</v>
+        <v>1.045183716310263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04604695922744</v>
+        <v>1.036162278349638</v>
       </c>
       <c r="J24">
-        <v>0.9637426872774627</v>
+        <v>1.017830039704746</v>
       </c>
       <c r="K24">
-        <v>1.036990643141854</v>
+        <v>1.045210323518728</v>
       </c>
       <c r="L24">
-        <v>0.9645991801428518</v>
+        <v>1.017090491304824</v>
       </c>
       <c r="M24">
-        <v>1.024473574575788</v>
+        <v>1.048522039451851</v>
       </c>
       <c r="N24">
-        <v>0.9905759880328026</v>
+        <v>1.009841556175305</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9475092130825656</v>
+        <v>1.014025935260263</v>
       </c>
       <c r="D25">
-        <v>1.029106139616347</v>
+        <v>1.042945503438763</v>
       </c>
       <c r="E25">
-        <v>0.9611632137790337</v>
+        <v>1.015835996294212</v>
       </c>
       <c r="F25">
-        <v>1.018805373859664</v>
+        <v>1.046757471979914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047926474164198</v>
+        <v>1.03638504397459</v>
       </c>
       <c r="J25">
-        <v>0.9739421108520254</v>
+        <v>1.019753091639976</v>
       </c>
       <c r="K25">
-        <v>1.041268818483576</v>
+        <v>1.045975744473479</v>
       </c>
       <c r="L25">
-        <v>0.9743959053409902</v>
+        <v>1.018952617519486</v>
       </c>
       <c r="M25">
-        <v>1.03111860973779</v>
+        <v>1.049775958593385</v>
       </c>
       <c r="N25">
-        <v>0.9942215246221174</v>
+        <v>1.010507697067236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016059960140154</v>
+        <v>0.9580853920315667</v>
       </c>
       <c r="D2">
-        <v>1.043808470565055</v>
+        <v>1.033481361666388</v>
       </c>
       <c r="E2">
-        <v>1.017584678223098</v>
+        <v>0.9698590071387784</v>
       </c>
       <c r="F2">
-        <v>1.048010076926771</v>
+        <v>1.025013456111866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036556810286518</v>
+        <v>1.049311695968641</v>
       </c>
       <c r="J2">
-        <v>1.021281926496816</v>
+        <v>0.9815963557736737</v>
       </c>
       <c r="K2">
-        <v>1.046581292889503</v>
+        <v>1.044493151524901</v>
       </c>
       <c r="L2">
-        <v>1.020433432074942</v>
+        <v>0.9817548617170686</v>
       </c>
       <c r="M2">
-        <v>1.050771116642107</v>
+        <v>1.036134974677049</v>
       </c>
       <c r="N2">
-        <v>1.011035789920766</v>
+        <v>0.9969522556285748</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017534719921296</v>
+        <v>0.9654299119177365</v>
       </c>
       <c r="D3">
-        <v>1.044433685686065</v>
+        <v>1.036548866066741</v>
       </c>
       <c r="E3">
-        <v>1.018853068058077</v>
+        <v>0.9759160802781027</v>
       </c>
       <c r="F3">
-        <v>1.048918078645702</v>
+        <v>1.029358313018099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036678097909484</v>
+        <v>1.050255920079195</v>
       </c>
       <c r="J3">
-        <v>1.022389206574995</v>
+        <v>0.9869095087186083</v>
       </c>
       <c r="K3">
-        <v>1.047018104045995</v>
+        <v>1.046734516646566</v>
       </c>
       <c r="L3">
-        <v>1.021506171554783</v>
+        <v>0.9868666850997196</v>
       </c>
       <c r="M3">
-        <v>1.051490828883245</v>
+        <v>1.039628839178574</v>
       </c>
       <c r="N3">
-        <v>1.011417396914446</v>
+        <v>0.9988441652022878</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018488054533345</v>
+        <v>0.9700417396743428</v>
       </c>
       <c r="D4">
-        <v>1.044837602597406</v>
+        <v>1.0384862112555</v>
       </c>
       <c r="E4">
-        <v>1.019673230345743</v>
+        <v>0.9797271030836896</v>
       </c>
       <c r="F4">
-        <v>1.049504927832158</v>
+        <v>1.032099680685287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036754991276179</v>
+        <v>1.05083969539205</v>
       </c>
       <c r="J4">
-        <v>1.023104433441564</v>
+        <v>0.990244117159005</v>
       </c>
       <c r="K4">
-        <v>1.04729942144768</v>
+        <v>1.048141313026187</v>
       </c>
       <c r="L4">
-        <v>1.022199197271131</v>
+        <v>0.9900765230065375</v>
       </c>
       <c r="M4">
-        <v>1.051955212944893</v>
+        <v>1.041825532229431</v>
       </c>
       <c r="N4">
-        <v>1.011663483320982</v>
+        <v>1.000029681074071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018888619627443</v>
+        <v>0.9719488223403551</v>
       </c>
       <c r="D5">
-        <v>1.045007255666492</v>
+        <v>1.039289703944536</v>
       </c>
       <c r="E5">
-        <v>1.020017894655405</v>
+        <v>0.9813047468847117</v>
       </c>
       <c r="F5">
-        <v>1.049751474904736</v>
+        <v>1.033236096934623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036786936937752</v>
+        <v>1.051078776832134</v>
       </c>
       <c r="J5">
-        <v>1.02340481837574</v>
+        <v>0.9916225585272593</v>
       </c>
       <c r="K5">
-        <v>1.047417368993308</v>
+        <v>1.048722672037871</v>
       </c>
       <c r="L5">
-        <v>1.022490284196846</v>
+        <v>0.9914037552733079</v>
       </c>
       <c r="M5">
-        <v>1.05215012510729</v>
+        <v>1.042734308919831</v>
       </c>
       <c r="N5">
-        <v>1.01176673862688</v>
+        <v>1.000519264866912</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018955863752314</v>
+        <v>0.9722672221429551</v>
       </c>
       <c r="D6">
-        <v>1.045035732138254</v>
+        <v>1.039423982222198</v>
       </c>
       <c r="E6">
-        <v>1.020075757710805</v>
+        <v>0.9815682420296146</v>
       </c>
       <c r="F6">
-        <v>1.049792861622224</v>
+        <v>1.033425984533809</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036792278448053</v>
+        <v>1.051118552826357</v>
       </c>
       <c r="J6">
-        <v>1.023455237077219</v>
+        <v>0.9918526672962417</v>
       </c>
       <c r="K6">
-        <v>1.047437154234057</v>
+        <v>1.04881970490944</v>
       </c>
       <c r="L6">
-        <v>1.022539143786387</v>
+        <v>0.9916253367819663</v>
       </c>
       <c r="M6">
-        <v>1.052182833268611</v>
+        <v>1.042886051032348</v>
       </c>
       <c r="N6">
-        <v>1.01178406399354</v>
+        <v>1.000600964139776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018493407747197</v>
+        <v>0.9700673444613146</v>
       </c>
       <c r="D7">
-        <v>1.044839870114369</v>
+        <v>1.0384969901331</v>
       </c>
       <c r="E7">
-        <v>1.019677836279616</v>
+        <v>0.9797482781554939</v>
       </c>
       <c r="F7">
-        <v>1.049508222851284</v>
+        <v>1.032114927713198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03675541963027</v>
+        <v>1.050842914691709</v>
       </c>
       <c r="J7">
-        <v>1.023108448358911</v>
+        <v>0.9902626263571843</v>
       </c>
       <c r="K7">
-        <v>1.047300998719531</v>
+        <v>1.048149120239091</v>
       </c>
       <c r="L7">
-        <v>1.02220308780948</v>
+        <v>0.9900943431480793</v>
       </c>
       <c r="M7">
-        <v>1.051957818607378</v>
+        <v>1.041837732368004</v>
       </c>
       <c r="N7">
-        <v>1.01166486380529</v>
+        <v>1.000036256952167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016558559472245</v>
+        <v>0.9605978233128506</v>
       </c>
       <c r="D8">
-        <v>1.044019896909769</v>
+        <v>1.034528140056172</v>
       </c>
       <c r="E8">
-        <v>1.018013457533117</v>
+        <v>0.9719293420316976</v>
       </c>
       <c r="F8">
-        <v>1.048317083275701</v>
+        <v>1.026496771901205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036598128672683</v>
+        <v>1.049636542376513</v>
       </c>
       <c r="J8">
-        <v>1.021656400096667</v>
+        <v>0.9834141895140839</v>
       </c>
       <c r="K8">
-        <v>1.046729190240671</v>
+        <v>1.045259867410013</v>
       </c>
       <c r="L8">
-        <v>1.020796201501807</v>
+        <v>0.9835034695771357</v>
       </c>
       <c r="M8">
-        <v>1.051014620010993</v>
+        <v>1.037329401462822</v>
       </c>
       <c r="N8">
-        <v>1.011164930322507</v>
+        <v>0.9975999279043011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013141657744842</v>
+        <v>0.9427386842437674</v>
       </c>
       <c r="D9">
-        <v>1.042570130368226</v>
+        <v>1.027150156820015</v>
       </c>
       <c r="E9">
-        <v>1.015076026051515</v>
+        <v>0.9572512053490827</v>
       </c>
       <c r="F9">
-        <v>1.046212843516564</v>
+        <v>1.016025159023227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036308808434518</v>
+        <v>1.047293815616696</v>
       </c>
       <c r="J9">
-        <v>1.019087869655539</v>
+        <v>0.9704891788887738</v>
       </c>
       <c r="K9">
-        <v>1.045711423447517</v>
+        <v>1.039817580963454</v>
       </c>
       <c r="L9">
-        <v>1.018308406165053</v>
+        <v>0.9710781442256419</v>
       </c>
       <c r="M9">
-        <v>1.049342461692808</v>
+        <v>1.028863481619166</v>
       </c>
       <c r="N9">
-        <v>1.010277496095139</v>
+        <v>0.9929880721831568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010858289757794</v>
+        <v>0.9298921400356935</v>
       </c>
       <c r="D10">
-        <v>1.041600377400074</v>
+        <v>1.021941560146602</v>
       </c>
       <c r="E10">
-        <v>1.013114358091413</v>
+        <v>0.9467491760955183</v>
       </c>
       <c r="F10">
-        <v>1.044806414051939</v>
+        <v>1.00860475568758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036107765727129</v>
+        <v>1.045572668987049</v>
       </c>
       <c r="J10">
-        <v>1.017368613403267</v>
+        <v>0.9611926175957066</v>
       </c>
       <c r="K10">
-        <v>1.045026085099039</v>
+        <v>1.035925640318167</v>
       </c>
       <c r="L10">
-        <v>1.016643767878419</v>
+        <v>0.9621513941465771</v>
       </c>
       <c r="M10">
-        <v>1.048220840625339</v>
+        <v>1.022820367394482</v>
       </c>
       <c r="N10">
-        <v>1.009681422165564</v>
+        <v>0.9896636915832198</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009868182853495</v>
+        <v>0.9240661718552943</v>
       </c>
       <c r="D11">
-        <v>1.041179700505726</v>
+        <v>1.019609290834472</v>
       </c>
       <c r="E11">
-        <v>1.01226406541504</v>
+        <v>0.9420024211013285</v>
       </c>
       <c r="F11">
-        <v>1.044196549853722</v>
+        <v>1.005273199630893</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036018777389464</v>
+        <v>1.044786106800446</v>
       </c>
       <c r="J11">
-        <v>1.016622454288477</v>
+        <v>0.9569785553510639</v>
       </c>
       <c r="K11">
-        <v>1.044727707666416</v>
+        <v>1.034170643018688</v>
       </c>
       <c r="L11">
-        <v>1.015921451567432</v>
+        <v>0.9581077396082395</v>
       </c>
       <c r="M11">
-        <v>1.047733531050937</v>
+        <v>1.020096351609252</v>
       </c>
       <c r="N11">
-        <v>1.00942223964568</v>
+        <v>0.9881556041483951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009500195492618</v>
+        <v>0.9218585839588427</v>
       </c>
       <c r="D12">
-        <v>1.041023327443729</v>
+        <v>1.018730636293663</v>
       </c>
       <c r="E12">
-        <v>1.01194809117168</v>
+        <v>0.9402064200733267</v>
       </c>
       <c r="F12">
-        <v>1.043969887273559</v>
+        <v>1.004016519283893</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035985432421321</v>
+        <v>1.044487396118345</v>
       </c>
       <c r="J12">
-        <v>1.016345035016807</v>
+        <v>0.95538222431027</v>
       </c>
       <c r="K12">
-        <v>1.044616633375144</v>
+        <v>1.033507574725822</v>
       </c>
       <c r="L12">
-        <v>1.015652917911042</v>
+        <v>0.9565764077633553</v>
       </c>
       <c r="M12">
-        <v>1.047552275088091</v>
+        <v>1.019067171568166</v>
       </c>
       <c r="N12">
-        <v>1.009325803891148</v>
+        <v>0.9875842001214181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009579140008738</v>
+        <v>0.9223341608238662</v>
       </c>
       <c r="D13">
-        <v>1.041056875191562</v>
+        <v>1.018919683096336</v>
       </c>
       <c r="E13">
-        <v>1.012015875044314</v>
+        <v>0.9405932056065237</v>
       </c>
       <c r="F13">
-        <v>1.044018513149981</v>
+        <v>1.004286974247974</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035992598185881</v>
+        <v>1.044551772784102</v>
       </c>
       <c r="J13">
-        <v>1.01640455436492</v>
+        <v>0.9557260949448702</v>
       </c>
       <c r="K13">
-        <v>1.044640470212969</v>
+        <v>1.03365032349031</v>
       </c>
       <c r="L13">
-        <v>1.015710529931169</v>
+        <v>0.9569062560240867</v>
       </c>
       <c r="M13">
-        <v>1.047591166324089</v>
+        <v>1.019288741338104</v>
       </c>
       <c r="N13">
-        <v>1.00934649713013</v>
+        <v>0.9877072927939612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009837769389561</v>
+        <v>0.9238846057839813</v>
       </c>
       <c r="D14">
-        <v>1.041166777002168</v>
+        <v>1.01953691774041</v>
       </c>
       <c r="E14">
-        <v>1.012237949728206</v>
+        <v>0.9418546513068766</v>
       </c>
       <c r="F14">
-        <v>1.044177816550036</v>
+        <v>1.005169722230847</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036016027014669</v>
+        <v>1.044761550961144</v>
       </c>
       <c r="J14">
-        <v>1.016599528113915</v>
+        <v>0.9568472523321369</v>
       </c>
       <c r="K14">
-        <v>1.044718531201007</v>
+        <v>1.034116066120471</v>
       </c>
       <c r="L14">
-        <v>1.015899259280054</v>
+        <v>0.9579817737202436</v>
       </c>
       <c r="M14">
-        <v>1.047718553431432</v>
+        <v>1.020011641112351</v>
       </c>
       <c r="N14">
-        <v>1.009414271588503</v>
+        <v>0.9881086066685599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009997090409875</v>
+        <v>0.9248339842374915</v>
       </c>
       <c r="D15">
-        <v>1.041234475915913</v>
+        <v>1.019915555158516</v>
       </c>
       <c r="E15">
-        <v>1.012374758850204</v>
+        <v>0.9426274238912838</v>
       </c>
       <c r="F15">
-        <v>1.044275951128727</v>
+        <v>1.005711024635074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036030423765277</v>
+        <v>1.044889923779367</v>
       </c>
       <c r="J15">
-        <v>1.016719622914304</v>
+        <v>0.957533833918503</v>
       </c>
       <c r="K15">
-        <v>1.044766594867905</v>
+        <v>1.034401520988752</v>
       </c>
       <c r="L15">
-        <v>1.016015510597623</v>
+        <v>0.9586404658739766</v>
       </c>
       <c r="M15">
-        <v>1.047797008005704</v>
+        <v>1.020454703538094</v>
       </c>
       <c r="N15">
-        <v>1.009456007906957</v>
+        <v>0.9883543510618698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010923969832807</v>
+        <v>0.9302729131774171</v>
       </c>
       <c r="D16">
-        <v>1.041628280202543</v>
+        <v>1.022094659357598</v>
       </c>
       <c r="E16">
-        <v>1.013170770229639</v>
+        <v>0.9470597645374047</v>
       </c>
       <c r="F16">
-        <v>1.044846870294389</v>
+        <v>1.008823248989567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036113630815494</v>
+        <v>1.04562397222556</v>
       </c>
       <c r="J16">
-        <v>1.017418097019123</v>
+        <v>0.9614680948299978</v>
       </c>
       <c r="K16">
-        <v>1.045045853263228</v>
+        <v>1.036040585839643</v>
       </c>
       <c r="L16">
-        <v>1.016691673220074</v>
+        <v>0.9624157914878041</v>
       </c>
       <c r="M16">
-        <v>1.04825314710869</v>
+        <v>1.022998788395024</v>
       </c>
       <c r="N16">
-        <v>1.009698600379632</v>
+        <v>0.989762256667025</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01150499794447</v>
+        <v>0.9336114521008619</v>
       </c>
       <c r="D17">
-        <v>1.04187509802277</v>
+        <v>1.0234404327886</v>
       </c>
       <c r="E17">
-        <v>1.013669848087676</v>
+        <v>0.9497847649424522</v>
       </c>
       <c r="F17">
-        <v>1.045204758916409</v>
+        <v>1.010742815788664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036165306245355</v>
+        <v>1.046073136894059</v>
       </c>
       <c r="J17">
-        <v>1.017855769612606</v>
+        <v>0.9638836623958214</v>
       </c>
       <c r="K17">
-        <v>1.045220590563983</v>
+        <v>1.037049580790683</v>
       </c>
       <c r="L17">
-        <v>1.017115402299305</v>
+        <v>0.9647345192066993</v>
       </c>
       <c r="M17">
-        <v>1.048538831233365</v>
+        <v>1.024565070409891</v>
       </c>
       <c r="N17">
-        <v>1.009850482209124</v>
+        <v>0.9906264145931679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011843767917538</v>
+        <v>0.9355336555905227</v>
       </c>
       <c r="D18">
-        <v>1.042018988610014</v>
+        <v>1.024218036822489</v>
       </c>
       <c r="E18">
-        <v>1.01396086748992</v>
+        <v>0.9513551966412419</v>
       </c>
       <c r="F18">
-        <v>1.045413425330618</v>
+        <v>1.011851138417616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036195260897102</v>
+        <v>1.04633116798503</v>
       </c>
       <c r="J18">
-        <v>1.018110892045328</v>
+        <v>0.965274626975652</v>
       </c>
       <c r="K18">
-        <v>1.045322355436866</v>
+        <v>1.037631431352714</v>
       </c>
       <c r="L18">
-        <v>1.017362410300202</v>
+        <v>0.966069978492761</v>
       </c>
       <c r="M18">
-        <v>1.048705307763442</v>
+        <v>1.025468393985441</v>
       </c>
       <c r="N18">
-        <v>1.009938968365296</v>
+        <v>0.9911239122327314</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011959257260429</v>
+        <v>0.9361849309708334</v>
       </c>
       <c r="D19">
-        <v>1.042068039006083</v>
+        <v>1.024481953341284</v>
       </c>
       <c r="E19">
-        <v>1.014060083468078</v>
+        <v>0.951887529910493</v>
       </c>
       <c r="F19">
-        <v>1.045484560973397</v>
+        <v>1.012227165886437</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036205442980971</v>
+        <v>1.04641848811797</v>
       </c>
       <c r="J19">
-        <v>1.018197854456034</v>
+        <v>0.9657459340405489</v>
       </c>
       <c r="K19">
-        <v>1.045357028094341</v>
+        <v>1.037828714435924</v>
       </c>
       <c r="L19">
-        <v>1.017446609040667</v>
+        <v>0.96652252143457</v>
       </c>
       <c r="M19">
-        <v>1.048762045158194</v>
+        <v>1.025774698415099</v>
       </c>
       <c r="N19">
-        <v>1.009969122280514</v>
+        <v>0.9912924610267311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011442673035782</v>
+        <v>0.9332558828571522</v>
       </c>
       <c r="D20">
-        <v>1.041848624465531</v>
+        <v>1.023296811023813</v>
       </c>
       <c r="E20">
-        <v>1.013616310515503</v>
+        <v>0.9494943847241447</v>
       </c>
       <c r="F20">
-        <v>1.045166369546563</v>
+        <v>1.0105380456884</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036159781277112</v>
+        <v>1.04602535762125</v>
       </c>
       <c r="J20">
-        <v>1.017808828550527</v>
+        <v>0.9636263745768535</v>
       </c>
       <c r="K20">
-        <v>1.045201859086772</v>
+        <v>1.03694202084218</v>
       </c>
       <c r="L20">
-        <v>1.017069955319491</v>
+        <v>0.9644875189770173</v>
       </c>
       <c r="M20">
-        <v>1.048508196400251</v>
+        <v>1.024398093090311</v>
       </c>
       <c r="N20">
-        <v>1.009834197490723</v>
+        <v>0.9905343825275141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009761615555364</v>
+        <v>0.9234292759205994</v>
       </c>
       <c r="D21">
-        <v>1.041134416828006</v>
+        <v>1.0193555051583</v>
       </c>
       <c r="E21">
-        <v>1.012172558116792</v>
+        <v>0.9414841189518953</v>
       </c>
       <c r="F21">
-        <v>1.044130909317547</v>
+        <v>1.00491031681098</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036009135833922</v>
+        <v>1.044699960196682</v>
       </c>
       <c r="J21">
-        <v>1.016542120497954</v>
+        <v>0.9565179799117661</v>
       </c>
       <c r="K21">
-        <v>1.044695550911275</v>
+        <v>1.033979231351896</v>
       </c>
       <c r="L21">
-        <v>1.015843689671553</v>
+        <v>0.9576658926740187</v>
       </c>
       <c r="M21">
-        <v>1.047681047943906</v>
+        <v>1.019799255084432</v>
       </c>
       <c r="N21">
-        <v>1.009394318236551</v>
+        <v>0.9879907478922341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008703405084414</v>
+        <v>0.9169964361487806</v>
       </c>
       <c r="D22">
-        <v>1.040684701342808</v>
+        <v>1.016805555437963</v>
       </c>
       <c r="E22">
-        <v>1.011264014157371</v>
+        <v>0.9362559756317123</v>
       </c>
       <c r="F22">
-        <v>1.043479110938348</v>
+        <v>1.001260076920364</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035912736969382</v>
+        <v>1.04382855191631</v>
       </c>
       <c r="J22">
-        <v>1.015744168976448</v>
+        <v>0.9518674307115736</v>
       </c>
       <c r="K22">
-        <v>1.04437580528603</v>
+        <v>1.032051284087625</v>
       </c>
       <c r="L22">
-        <v>1.015071335806316</v>
+        <v>0.9532055909952761</v>
       </c>
       <c r="M22">
-        <v>1.047159554440358</v>
+        <v>1.016806612702417</v>
       </c>
       <c r="N22">
-        <v>1.009116799947183</v>
+        <v>0.9863259165855961</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009264504941952</v>
+        <v>0.9204322155897211</v>
       </c>
       <c r="D23">
-        <v>1.040923166926532</v>
+        <v>1.018164436757335</v>
       </c>
       <c r="E23">
-        <v>1.01174572824862</v>
+        <v>0.939046767436033</v>
       </c>
       <c r="F23">
-        <v>1.043824714299738</v>
+        <v>1.003206254097038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035963999258554</v>
+        <v>1.044294237320287</v>
       </c>
       <c r="J23">
-        <v>1.016167324337358</v>
+        <v>0.9543509577696883</v>
       </c>
       <c r="K23">
-        <v>1.044545442117217</v>
+        <v>1.033079757172015</v>
       </c>
       <c r="L23">
-        <v>1.015480905138712</v>
+        <v>0.9555872623284501</v>
       </c>
       <c r="M23">
-        <v>1.047436144151666</v>
+        <v>1.018403115274618</v>
       </c>
       <c r="N23">
-        <v>1.00926400817186</v>
+        <v>0.9872150316664184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011470835393261</v>
+        <v>0.9334166265937562</v>
       </c>
       <c r="D24">
-        <v>1.041860586955798</v>
+        <v>1.02336173021273</v>
       </c>
       <c r="E24">
-        <v>1.013640502100563</v>
+        <v>0.9496256535928814</v>
       </c>
       <c r="F24">
-        <v>1.045183716310263</v>
+        <v>1.010630607387618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036162278349638</v>
+        <v>1.04604695922744</v>
       </c>
       <c r="J24">
-        <v>1.017830039704746</v>
+        <v>0.963742687277463</v>
       </c>
       <c r="K24">
-        <v>1.045210323518728</v>
+        <v>1.036990643141854</v>
       </c>
       <c r="L24">
-        <v>1.017090491304824</v>
+        <v>0.9645991801428521</v>
       </c>
       <c r="M24">
-        <v>1.048522039451851</v>
+        <v>1.024473574575788</v>
       </c>
       <c r="N24">
-        <v>1.009841556175305</v>
+        <v>0.9905759880328027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014025935260263</v>
+        <v>0.9475092130825662</v>
       </c>
       <c r="D25">
-        <v>1.042945503438763</v>
+        <v>1.029106139616347</v>
       </c>
       <c r="E25">
-        <v>1.015835996294212</v>
+        <v>0.9611632137790341</v>
       </c>
       <c r="F25">
-        <v>1.046757471979914</v>
+        <v>1.018805373859664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03638504397459</v>
+        <v>1.047926474164198</v>
       </c>
       <c r="J25">
-        <v>1.019753091639976</v>
+        <v>0.9739421108520259</v>
       </c>
       <c r="K25">
-        <v>1.045975744473479</v>
+        <v>1.041268818483577</v>
       </c>
       <c r="L25">
-        <v>1.018952617519486</v>
+        <v>0.9743959053409907</v>
       </c>
       <c r="M25">
-        <v>1.049775958593385</v>
+        <v>1.03111860973779</v>
       </c>
       <c r="N25">
-        <v>1.010507697067236</v>
+        <v>0.9942215246221178</v>
       </c>
     </row>
   </sheetData>
